--- a/DATA_goal/Junction_Flooding_113.xlsx
+++ b/DATA_goal/Junction_Flooding_113.xlsx
@@ -453,11 +453,11 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -655,52 +655,52 @@
         <v>41545.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
@@ -709,49 +709,49 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.39</v>
+        <v>1.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.45</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41545.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.83</v>
+        <v>2.28</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.05</v>
+        <v>1.71</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50.53</v>
+        <v>5.05</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.67</v>
+        <v>4.07</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>62.14</v>
+        <v>6.21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.63</v>
+        <v>2.76</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.85</v>
+        <v>1.88</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.58</v>
+        <v>2.06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.09</v>
+        <v>2.11</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.69</v>
+        <v>2.67</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>268.09</v>
+        <v>26.81</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.47</v>
+        <v>5.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.86</v>
+        <v>3.39</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.27</v>
+        <v>1.83</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.27</v>
+        <v>3.23</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.2</v>
+        <v>2.12</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>56.73</v>
+        <v>5.67</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.26</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41545.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.32</v>
+        <v>1.83</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.41</v>
+        <v>4.04</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.71</v>
+        <v>3.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>57.59</v>
+        <v>5.76</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.2</v>
+        <v>2.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.46</v>
+        <v>1.65</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.27</v>
+        <v>2.13</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>213.33</v>
+        <v>21.33</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>40.61</v>
+        <v>4.06</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.28</v>
+        <v>2.73</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.3</v>
+        <v>2.83</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>52.71</v>
+        <v>5.27</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41545.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.86</v>
+        <v>2.39</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52.3</v>
+        <v>5.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.72</v>
+        <v>4.27</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.86</v>
+        <v>1.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>73.09999999999999</v>
+        <v>7.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.9</v>
+        <v>2.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.54</v>
+        <v>1.95</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.19</v>
+        <v>2.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.04</v>
+        <v>2.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.65</v>
+        <v>1.87</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.26</v>
+        <v>2.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.64</v>
+        <v>27.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.56</v>
+        <v>5.26</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.44</v>
+        <v>3.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.84</v>
+        <v>1.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.87</v>
+        <v>3.59</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.04</v>
+        <v>2.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>66.54000000000001</v>
+        <v>6.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.73</v>
+        <v>0.97</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.86</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41545.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>34.31</v>
+        <v>3.43</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>27.95</v>
+        <v>2.8</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>50.68</v>
+        <v>5.07</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18.94</v>
+        <v>1.89</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.94</v>
+        <v>1.39</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.94</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>180.25</v>
+        <v>18.02</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>34.55</v>
+        <v>3.45</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>23.27</v>
+        <v>2.33</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>24.45</v>
+        <v>2.44</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.05</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.75</v>
+        <v>0.87</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>46.23</v>
+        <v>4.62</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41545.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>3.95</v>
+        <v>0.4</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>32.69</v>
+        <v>3.27</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>3.15</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41545.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>14.05</v>
+        <v>1.41</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>40.98</v>
+        <v>4.1</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>33.59</v>
+        <v>3.36</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>53.57</v>
+        <v>5.36</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>22.7</v>
+        <v>2.27</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>16.58</v>
+        <v>1.66</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14.65</v>
+        <v>1.46</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>21.26</v>
+        <v>2.13</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.05</v>
+        <v>1.21</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>216.89</v>
+        <v>21.69</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>41.08</v>
+        <v>4.11</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.7</v>
+        <v>1.37</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>27.75</v>
+        <v>2.77</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>26.67</v>
+        <v>2.67</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.01</v>
+        <v>1.2</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>48.43</v>
+        <v>4.84</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41545.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>29.9</v>
+        <v>2.99</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>24.47</v>
+        <v>2.45</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>43.48</v>
+        <v>4.35</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.55</v>
+        <v>1.66</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>156.26</v>
+        <v>15.63</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>30.12</v>
+        <v>3.01</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>20.33</v>
+        <v>2.03</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>21.12</v>
+        <v>2.11</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>39.68</v>
+        <v>3.97</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41545.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>37.21</v>
+        <v>3.72</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>30.55</v>
+        <v>3.05</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>52.02</v>
+        <v>5.2</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>20.63</v>
+        <v>2.06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>15.05</v>
+        <v>1.5</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>19.3</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>196.32</v>
+        <v>19.63</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>37.42</v>
+        <v>3.74</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>25.28</v>
+        <v>2.53</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>47.26</v>
+        <v>4.73</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>15.52</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_113.xlsx
+++ b/DATA_goal/Junction_Flooding_113.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,29 +451,29 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41545.34027777778</v>
+        <v>44794.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.48</v>
+        <v>2.88</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.14</v>
+        <v>2.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.26</v>
+        <v>3.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.63</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.96</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.23</v>
+        <v>1.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.21</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.34</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.39</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>1.44</v>
+        <v>15.28</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.37</v>
+        <v>2.91</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.97</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.88</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.96</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.23</v>
+        <v>1.65</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.86</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.17</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.52</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41545.34722222222</v>
+        <v>44794.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.28</v>
+        <v>0.61</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.71</v>
+        <v>0.41</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.05</v>
+        <v>1.35</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.07</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.81</v>
+        <v>0.47</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.21</v>
+        <v>2.05</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.76</v>
+        <v>0.76</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.31</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.88</v>
+        <v>0.43</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.06</v>
+        <v>0.54</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.11</v>
+        <v>0.58</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.16</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.79</v>
+        <v>0.49</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.67</v>
+        <v>0.67</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.46</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.81</v>
+        <v>6.71</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.05</v>
+        <v>1.38</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.71</v>
+        <v>0.45</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.39</v>
+        <v>0.88</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.83</v>
+        <v>0.45</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.23</v>
+        <v>1.01</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.47</v>
+        <v>0.4</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.38</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.55</v>
+        <v>0.44</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.12</v>
+        <v>0.55</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.67</v>
+        <v>1.93</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.23</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.13</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41545.35416666666</v>
+        <v>44794.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M4" s="4" t="n">
         <v>1.83</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="n">
+      <c r="N4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="X4" s="4" t="n">
         <v>1.51</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.46</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>0.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.27</v>
+        <v>5.13</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41545.36111111111</v>
+        <v>44794.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.39</v>
+        <v>0.76</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.79</v>
+        <v>0.55</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.23</v>
+        <v>1.67</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.27</v>
+        <v>1.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.89</v>
+        <v>0.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.31</v>
+        <v>2.73</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.89</v>
+        <v>0.93</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.95</v>
+        <v>0.58</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.12</v>
+        <v>0.67</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.2</v>
+        <v>0.72</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O5" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1.87</v>
-      </c>
       <c r="P5" s="4" t="n">
-        <v>2.73</v>
+        <v>0.85</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.86</v>
+        <v>8.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.26</v>
+        <v>1.7</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.54</v>
+        <v>1.12</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.88</v>
+        <v>0.58</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.59</v>
+        <v>1.29</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.45</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.6</v>
+        <v>0.52</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.65</v>
+        <v>2.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.19</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41545.36805555555</v>
+        <v>44794.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.56</v>
+        <v>17.69</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.17</v>
+        <v>13.17</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>1.02</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.43</v>
+        <v>38.67</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.8</v>
+        <v>31.46</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.24</v>
+        <v>13.88</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.07</v>
+        <v>52.03</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.89</v>
+        <v>21.52</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.86</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.28</v>
+        <v>14.08</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.39</v>
+        <v>15.5</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.44</v>
+        <v>16.49</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.4</v>
+        <v>4.47</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.22</v>
+        <v>13.91</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.79</v>
+        <v>19.76</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1</v>
+        <v>11.76</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.65</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>18.02</v>
+        <v>204.4</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.45</v>
+        <v>38.83</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.15</v>
+        <v>12.84</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.33</v>
+        <v>26.07</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.24</v>
+        <v>13.68</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.19</v>
+        <v>2.07</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.44</v>
+        <v>25.59</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1</v>
+        <v>11.34</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.87</v>
+        <v>10.07</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.05</v>
+        <v>11.84</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.45</v>
+        <v>16.27</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.62</v>
+        <v>47.2</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.64</v>
+        <v>7.21</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41545.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41545.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41545.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41545.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>19.63</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41545.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>19.63</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>35.23</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>60.17</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>23.78</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>227.24</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>43.11</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>29.15</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>54.69</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>17.85</v>
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_113.xlsx
+++ b/DATA_goal/Junction_Flooding_113.xlsx
@@ -451,9 +451,9 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -473,7 +473,7 @@
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44794.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.88</v>
+        <v>28.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.28</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.12</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44794.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.36</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.71</v>
+        <v>67.09</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.82</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.93</v>
+        <v>19.29</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44794.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.59</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.45</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.28</v>
+        <v>42.84</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.46</v>
+        <v>34.58</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.64</v>
+        <v>56.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.85</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.43</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.16</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.83</v>
+        <v>18.27</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.18</v>
+        <v>21.83</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.14</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.73</v>
+        <v>227.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.3</v>
+        <v>43.02</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.88</v>
+        <v>28.76</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.07</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.81</v>
+        <v>28.06</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.96</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.13</v>
+        <v>51.34</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44794.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.59</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.43</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.45</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.53</v>
+        <v>25.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_113.xlsx
+++ b/DATA_goal/Junction_Flooding_113.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44794.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.51</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.83</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.49</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.24</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.57</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.47</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.33</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.42</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.12</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.77</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.57</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.81</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.9</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.69</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44794.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.11</v>
+        <v>6.111</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.12</v>
+        <v>4.124</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.416</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.54</v>
+        <v>13.541</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.965999999999999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.69</v>
+        <v>4.687</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20.5</v>
+        <v>20.503</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.06</v>
+        <v>3.062</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.26</v>
+        <v>4.265</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.36</v>
+        <v>5.358</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.8</v>
+        <v>5.803</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.57</v>
+        <v>1.574</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.89</v>
+        <v>4.888</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.73</v>
+        <v>6.728</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.56</v>
+        <v>4.558</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.3</v>
+        <v>1.304</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>67.09</v>
+        <v>67.087</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.82</v>
+        <v>13.816</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.51</v>
+        <v>4.511</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.83</v>
+        <v>8.831</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>1.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.11</v>
+        <v>10.112</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.98</v>
+        <v>3.985</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.76</v>
+        <v>3.756</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.43</v>
+        <v>4.426</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.51</v>
+        <v>5.506</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>19.29</v>
+        <v>19.287</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.34</v>
+        <v>2.339</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44794.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.59</v>
+        <v>19.586</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.45</v>
+        <v>14.451</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1.41</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>42.84</v>
+        <v>42.843</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.58</v>
+        <v>34.582</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.33</v>
+        <v>15.331</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>56.44</v>
+        <v>56.441</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.85</v>
+        <v>23.851</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.48</v>
+        <v>10.479</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>15.43</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.16</v>
+        <v>17.155</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.27</v>
+        <v>18.266</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>4.95</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>21.83</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.14</v>
+        <v>13.141</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.908</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>227.29</v>
+        <v>227.294</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>43.02</v>
+        <v>43.019</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.76</v>
+        <v>28.763</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.07</v>
+        <v>15.067</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.42</v>
+        <v>2.424</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.06</v>
+        <v>28.059</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.21</v>
+        <v>11.211</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>13.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.96</v>
+        <v>17.961</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>51.34</v>
+        <v>51.339</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.94</v>
+        <v>7.942</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.79</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.94</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44794.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.03</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.83</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.59</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_113.xlsx
+++ b/DATA_goal/Junction_Flooding_113.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44794.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.59</v>
+        <v>7.591</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>5.53</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.72</v>
+        <v>16.723</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.91</v>
+        <v>5.914</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27.34</v>
+        <v>27.344</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.04</v>
+        <v>4.042</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>5.8</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.69</v>
+        <v>6.689</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.18</v>
+        <v>7.177</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.94</v>
+        <v>1.937</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.5</v>
+        <v>8.496</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.28</v>
+        <v>5.275</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.26000000000001</v>
+        <v>84.261</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.24</v>
+        <v>11.241</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.819</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.91</v>
+        <v>12.909</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.9</v>
+        <v>4.904</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>4.45</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.23</v>
+        <v>5.226</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.98</v>
+        <v>6.982</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.3</v>
+        <v>25.298</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>3.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.94</v>
+        <v>6.943</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44794.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>52.03</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>38.83</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_113.xlsx
+++ b/DATA_goal/Junction_Flooding_113.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44794.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.591</v>
+        <v>7.59</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>5.53</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.802</v>
+        <v>0.8</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.723</v>
+        <v>16.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.187</v>
+        <v>13.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.914</v>
+        <v>5.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27.344</v>
+        <v>27.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.308</v>
+        <v>9.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.042</v>
+        <v>4.04</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>5.8</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.689</v>
+        <v>6.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.177</v>
+        <v>7.18</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.937</v>
+        <v>1.94</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.015</v>
+        <v>6.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.496</v>
+        <v>8.5</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.275</v>
+        <v>5.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.261</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.004</v>
+        <v>17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.552</v>
+        <v>5.55</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.241</v>
+        <v>11.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.819</v>
+        <v>5.82</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.093</v>
+        <v>1.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.909</v>
+        <v>12.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.904</v>
+        <v>4.9</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>4.45</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.226</v>
+        <v>5.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.982</v>
+        <v>6.98</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.298</v>
+        <v>25.3</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>3.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.943</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44794.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.03</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.83</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.59</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.05</v>
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>
